--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="H2">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="I2">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="J2">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N2">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O2">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P2">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q2">
-        <v>0.3970688579559999</v>
+        <v>0.05350539555211112</v>
       </c>
       <c r="R2">
-        <v>3.573619721604</v>
+        <v>0.481548559969</v>
       </c>
       <c r="S2">
-        <v>0.758613156937518</v>
+        <v>0.5729759011043565</v>
       </c>
       <c r="T2">
-        <v>0.7586131569375181</v>
+        <v>0.5729759011043566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="H3">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="I3">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="J3">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>0.218696</v>
       </c>
       <c r="O3">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P3">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q3">
-        <v>0.04593592842133333</v>
+        <v>0.01686236068355556</v>
       </c>
       <c r="R3">
-        <v>0.413423355792</v>
+        <v>0.151761246152</v>
       </c>
       <c r="S3">
-        <v>0.08776210719709746</v>
+        <v>0.1805748038624808</v>
       </c>
       <c r="T3">
-        <v>0.08776210719709748</v>
+        <v>0.1805748038624808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="H4">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="I4">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="J4">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,28 +673,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N4">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O4">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P4">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q4">
-        <v>0.012880569094</v>
+        <v>0.0003175918336666667</v>
       </c>
       <c r="R4">
-        <v>0.115925121846</v>
+        <v>0.002858326503</v>
       </c>
       <c r="S4">
-        <v>0.02460875233039291</v>
+        <v>0.003401011527918016</v>
       </c>
       <c r="T4">
-        <v>0.02460875233039292</v>
+        <v>0.003401011527918017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.218696</v>
       </c>
       <c r="I5">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="J5">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N5">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O5">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P5">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q5">
-        <v>0.04593592842133333</v>
+        <v>0.01686236068355556</v>
       </c>
       <c r="R5">
-        <v>0.413423355792</v>
+        <v>0.151761246152</v>
       </c>
       <c r="S5">
-        <v>0.08776210719709746</v>
+        <v>0.1805748038624808</v>
       </c>
       <c r="T5">
-        <v>0.08776210719709748</v>
+        <v>0.1805748038624808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.218696</v>
       </c>
       <c r="I6">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="J6">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>0.218696</v>
       </c>
       <c r="O6">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P6">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q6">
         <v>0.005314215601777778</v>
@@ -815,10 +815,10 @@
         <v>0.047827940416</v>
       </c>
       <c r="S6">
-        <v>0.01015298428354203</v>
+        <v>0.05690860597649225</v>
       </c>
       <c r="T6">
-        <v>0.01015298428354204</v>
+        <v>0.05690860597649226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.218696</v>
       </c>
       <c r="I7">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="J7">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -859,28 +859,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N7">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O7">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P7">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q7">
-        <v>0.001490121645333333</v>
+        <v>0.0001000898693333333</v>
       </c>
       <c r="R7">
-        <v>0.013411094808</v>
+        <v>0.0009008088240000001</v>
       </c>
       <c r="S7">
-        <v>0.002846926579451148</v>
+        <v>0.001071837381649283</v>
       </c>
       <c r="T7">
-        <v>0.002846926579451149</v>
+        <v>0.001071837381649283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="H8">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="I8">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="J8">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N8">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O8">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P8">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q8">
-        <v>0.012880569094</v>
+        <v>0.0003175918336666667</v>
       </c>
       <c r="R8">
-        <v>0.115925121846</v>
+        <v>0.002858326503</v>
       </c>
       <c r="S8">
-        <v>0.02460875233039291</v>
+        <v>0.003401011527918016</v>
       </c>
       <c r="T8">
-        <v>0.02460875233039292</v>
+        <v>0.003401011527918017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="H9">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="I9">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="J9">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,22 +989,22 @@
         <v>0.218696</v>
       </c>
       <c r="O9">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P9">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q9">
-        <v>0.001490121645333333</v>
+        <v>0.0001000898693333333</v>
       </c>
       <c r="R9">
-        <v>0.013411094808</v>
+        <v>0.0009008088240000001</v>
       </c>
       <c r="S9">
-        <v>0.002846926579451148</v>
+        <v>0.001071837381649283</v>
       </c>
       <c r="T9">
-        <v>0.002846926579451149</v>
+        <v>0.001071837381649283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="H10">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="I10">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="J10">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1045,28 +1045,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N10">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O10">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P10">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q10">
-        <v>0.000417834481</v>
+        <v>1.885129E-06</v>
       </c>
       <c r="R10">
-        <v>0.003760510329</v>
+        <v>1.6966161E-05</v>
       </c>
       <c r="S10">
-        <v>0.0007982865650568951</v>
+        <v>2.018737505493195E-05</v>
       </c>
       <c r="T10">
-        <v>0.0007982865650568953</v>
+        <v>2.018737505493195E-05</v>
       </c>
     </row>
   </sheetData>
